--- a/data/trans_orig/MOL_RUIDO_TRAF_NOCHE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_TRAF_NOCHE-Edad-trans_orig.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Media" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,48 +53,6 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -105,11 +65,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -497,454 +457,494 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Molestia del ruido del tráfico durante la noche en el interior de la vivienda (tasa de respuesta: 99,91%)</t>
+          <t>Molestia del ruido del tráfico durante la noche en el interior de la vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>16/24</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>16-24 años</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,35</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>1.333674530861521</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1.346901806813718</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1.340124014563316</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 1,78</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 1,72</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 1,63</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.9810203199792213</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.9976986457015268</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.099611306763888</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>25/34</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.784006417277303</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.722781141429041</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1.63127112095612</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>25-34 años</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,07</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,97</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,7; 2,53</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,57; 2,4</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 2,32</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>2.065582516837109</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>1.971626227683952</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2.017718037628653</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35/44</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>1.696911493411642</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>1.567253372171019</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1.735214805604812</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>2.527716968722358</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>2.399904294371396</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>2.324288063850937</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>35-44 años</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,99</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 2,15</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 2,67</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 2,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>45/54</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>1.781646630225479</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>2.215914322585362</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1.992417218484219</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>1.467361087312703</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>1.809584413607412</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>1.744945897354786</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>2.146114382388143</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>2.674604417378038</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>2.269947324993189</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>45-54 años</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,28</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1,41; 2,14</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,88; 2,74</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,73; 2,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55/64</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>1.776408568757164</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>2.282803902676434</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>2.031613429438148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>1.412032777413581</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>1.87829151565722</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>1.731858426779674</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>2.143223193903431</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>2.741813589341786</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>2.331716199358816</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>55-64 años</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,84</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,87</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,36; 2,4</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,53; 2,3</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,6; 2,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="C16" s="4" t="n">
+        <v>1.838493334247756</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>1.905324345653555</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>1.874697282217903</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>1.360535850294345</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>1.530548817426551</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>1.596191756100005</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>2.396700004350587</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>2.301470439928529</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>2.25906611094911</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>65-74 años</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,66</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,22; 2,19</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,33; 2,33</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,44; 2,15</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="C19" s="4" t="n">
+        <v>1.660224348720926</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>1.803487094778295</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>1.740616011821994</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>1.224250366137124</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>1.331536876054909</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>1.435331024056666</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>2.185337847855707</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>2.33209120032421</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>2.14886339877401</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>75 y más años</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,27</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 1,96</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 1,68</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 1,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="C22" s="4" t="n">
+        <v>1.389213907868971</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>1.27354333535257</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>1.317323900701318</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>1.003236683569945</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>0.9050121914366378</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>1.045581605628382</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>1.962367909833233</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>1.677381288561046</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>1.627570177290977</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>1,75</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>1,59; 1,9</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>1,71; 2,05</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>1,7; 1,93</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="C25" s="4" t="n">
+        <v>1.745748127416987</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>1.878365063416456</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>1.815600646982076</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n"/>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>1.592830577433692</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>1.705817122885791</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>1.697017342300394</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n"/>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>1.903897847841559</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>2.045896436589168</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>1.929231208618099</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -952,15 +952,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
